--- a/documents/dispersal_multipliers.xlsx
+++ b/documents/dispersal_multipliers.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dispersal_dec1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="dispersal_dec2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="13">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -57,6 +58,9 @@
   <si>
     <t xml:space="preserve">0</t>
   </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
 </sst>
 </file>
 
@@ -71,6 +75,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -141,11 +146,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,8 +339,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,4 +1076,750 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/documents/dispersal_multipliers.xlsx
+++ b/documents/dispersal_multipliers.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
